--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.012721.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.012721.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1771,12 +1771,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2037,12 +2037,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2189,12 +2189,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3443,12 +3443,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3717,12 +3717,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3755,12 +3755,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4515,12 +4515,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5313,12 +5313,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5351,12 +5351,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5465,12 +5465,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5921,12 +5921,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6149,12 +6149,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6301,12 +6301,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6567,12 +6567,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6605,12 +6605,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6681,12 +6681,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7251,12 +7251,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7327,12 +7327,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7365,12 +7365,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7403,12 +7403,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7707,12 +7707,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8851,12 +8851,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8889,12 +8889,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9079,12 +9079,12 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9117,12 +9117,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9269,12 +9269,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9345,12 +9345,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9915,12 +9915,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9953,12 +9953,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9991,12 +9991,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10371,12 +10371,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10489,12 +10489,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10565,12 +10565,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10641,12 +10641,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10793,12 +10793,12 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10869,12 +10869,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10945,12 +10945,12 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10983,12 +10983,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11553,12 +11553,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12085,12 +12085,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12123,12 +12123,12 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12275,12 +12275,12 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12465,12 +12465,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12541,12 +12541,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12769,12 +12769,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12921,12 +12921,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13035,12 +13035,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13073,12 +13073,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13377,12 +13377,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13567,12 +13567,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14179,12 +14179,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14977,12 +14977,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15167,12 +15167,12 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15243,12 +15243,12 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15319,12 +15319,12 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15623,12 +15623,12 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15775,12 +15775,12 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16003,12 +16003,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16121,12 +16121,12 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
